--- a/biology/Zoologie/Acanthocercus_atricollis/Acanthocercus_atricollis.xlsx
+++ b/biology/Zoologie/Acanthocercus_atricollis/Acanthocercus_atricollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthocercus atricollis est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthocercus atricollis est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, au Botswana, au Zimbabwe, au Mozambique, au Malawi, en Zambie, en Angola, au Congo-Kinshasa, en Tanzanie, au Kenya, au Ouganda, au Rwanda, au Soudan du Sud, en Éthiopie et en Somalie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie, au Botswana, au Zimbabwe, au Mozambique, au Malawi, en Zambie, en Angola, au Congo-Kinshasa, en Tanzanie, au Kenya, au Ouganda, au Rwanda, au Soudan du Sud, en Éthiopie et en Somalie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un agame arboricole.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 janvier 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 janvier 2016) :
 Acanthocercus atricollis atricollis (Smith, 1849)
 Acanthocercus atricollis gregorii (Günther, 1894)
 Acanthocercus atricollis kiwuensis (Klausewitz, 1957)
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Smith, 1849 : Illustrations of the Zoology of South Africa; Consisting Chiefly of Figures and Descriptions of the Objects of Natural History Collected during an Expedition into the Interior of South Africa, in the Years 1834, 1835, and 1836 . vol. III. Reptilia. Part 27. London: Smith, Elder, &amp; Co.
 Günther, 1894 : Report on the collection of reptiles and fishes made by Dr J. W. Gregory during his expedition to Mount Kenia. Proceedings of the Zoological Society of London, vol. 1894, p. 84-91 (texte intégral).
